--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t xml:space="preserve">participant</t>
   </si>
@@ -313,6 +313,12 @@
     <t xml:space="preserve">2022-11-23-16-16</t>
   </si>
   <si>
+    <t xml:space="preserve">s.5e990024-7b7c-42a7-8523-f140a5a4b276.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-20-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">s.9009c708-e5d3-4bd4-81ee-7ab60b37b7cb.txt</t>
   </si>
   <si>
@@ -326,6 +332,33 @@
   </si>
   <si>
     <t xml:space="preserve">2022-11-23-20-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.d6e5f0fa-eb62-4daf-8dae-687db3e5ea6d.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-20-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.7826dd08-75f0-4cc3-97d3-dc4cb73451cc.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-22-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.d1f707e8-ce0f-4ed3-a9ed-19fbade2cf28.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrowdSpace.2022-11-24-1755.data.d1f707e8-ce0f-4ed3-a9ed-19fbade2cf28.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POITIERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-17-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-18-03</t>
   </si>
 </sst>
 </file>
@@ -417,11 +450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -429,30 +462,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="14" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="25" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="44" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="55" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="14" style="0" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="25" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="44" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="18.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="55" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="8.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="66" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="6.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="66" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="10.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,200 +1717,424 @@
       <c r="A9" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="BN9" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE9" s="0" t="n">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="BF9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG9" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="BH9" s="0" t="s">
+      <c r="BF10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG10" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH10" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="BI9" s="0" t="n">
+      <c r="BI10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="BJ9" s="0" t="n">
+      <c r="BJ10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="BL9" s="0" t="n">
+      <c r="BL10" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="BM9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN9" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO9" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP9" s="0" t="n">
+      <c r="BM10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP10" s="0" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN11" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN12" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BM13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP13" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
